--- a/ComparisonAgent_Output/ABAP To Pyspark Convert_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/ABAP To Pyspark Convert_comparison/aava_enterprise_comparison_agent.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SECTION_2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Scope_Summary_Table" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Unmatched_Files_Detail" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Table_2" sheetId="6" state="visible" r:id="rId6"/>
@@ -17,13 +17,14 @@
     <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Table_3" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Component_Unit_Testing" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Component_Reconciliation" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Component_Recon_Tester" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Component_Reviewer" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Component_Conversion_Tester" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Overall_Migration_Risk_Level_HI" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Table_4" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Table_5" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="SECTION_8_KEY_DIFFERENCES" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Table_4" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Table_5" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,7 +474,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-18 23:31:09</t>
+          <t>2026-01-18 23:37:12</t>
         </is>
       </c>
     </row>
@@ -484,7 +485,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -564,17 +565,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+3 (+3.3%)</t>
+          <t>+6 (+5.5%)</t>
         </is>
       </c>
     </row>
@@ -586,12 +587,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -608,12 +609,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -630,12 +631,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +658,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -701,7 +702,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -728,7 +729,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>96.5%</t>
         </is>
       </c>
     </row>
@@ -765,7 +766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,7 +777,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="34" customWidth="1" min="2" max="2"/>
     <col width="34" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -804,95 +805,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABAP_To_PySpark_Recon_Tester.txt</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_recon_tester.txt</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+12 (+8.6%)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+8 (+6.7%)</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -902,19 +903,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -924,7 +925,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -936,7 +937,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -958,7 +959,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Match Percentage</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -968,19 +969,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>91.2%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Dimension Score</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -994,28 +995,6 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>93.5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>91/100</t>
         </is>
@@ -1032,7 +1011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,95 +1050,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABAP_To_PySpark_Reviewer.txt</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_reviewer.txt</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+8 (+8.9%)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+7 (+8.2%)</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1169,19 +1148,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1191,7 +1170,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1203,7 +1182,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1213,7 +1192,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1225,7 +1204,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Match Percentage</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1235,19 +1214,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>95.5%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Dimension Score</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1261,28 +1240,6 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>95.5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>96/100</t>
         </is>
@@ -1299,7 +1256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,95 +1295,95 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Conversion_Tester.txt</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_conversion_tester.txt</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+6 (+5.5%)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lines of Code</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+3 (+3.3%)</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Functions/Classes</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cyclomatic Complexity</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+0.1</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Content Match Status</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1436,19 +1393,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lines Added</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1458,7 +1415,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1470,7 +1427,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lines Removed</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1480,7 +1437,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1492,7 +1449,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lines Changed</t>
+          <t>Match Percentage</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1502,19 +1459,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>96.5%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Match Percentage</t>
+          <t>Dimension Score</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1528,28 +1485,6 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>97.0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dimension Score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>97/100</t>
         </is>
@@ -1566,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,21 +1509,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="31" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
+    <col width="34" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Risk Factor</t>
+          <t>Severity</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Risk Level</t>
+          <t>Component</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1598,95 +1534,66 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mitigation</t>
+          <t>Functional Impact</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Migration Impact</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Unmatched File</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Converter component missing in AAVA 2.0</t>
+          <t>Additional error handling and refactoring</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manual review required</t>
+          <t>Minor documentation/logging</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Structural Changes</t>
+          <t>High</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Minor refactoring in reconciliation logic</t>
+          <t>No corresponding artifact in AAVA 2.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Acceptable, tested</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Documentation Gap</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Minor gaps in comments in some files</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Update documentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Integration Risk</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>All matched components integrate successfully</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Confirm with integration test</t>
+          <t>Cannot validate conversion logic</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -1696,6 +1603,163 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Factor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Unmatched File</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>"Converter" file not present</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Manual migration/validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Reconciliation Logic</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Minor refactoring in "Recon Tester"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Test Coverage</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>All matched files fully covered</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Maintain test suite</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No degradation detected</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Monitor post-migration</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Documentation</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Minor gaps in comments</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Enhance documentation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1711,7 +1775,7 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1744,7 +1808,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All matched components passed</t>
+          <t>All matched files equivalent</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1825,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>High coverage, minor gaps</t>
+          <t>Comprehensive</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1842,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Equivalent, minor improvements</t>
+          <t>No issues</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1871,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CONDITIONAL</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>One file missing</t>
+          <t>All gates passed for matched files</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1893,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Migration approved for matched; review required for unmatched</t>
+          <t>Unmatched file requires review</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,7 +1952,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>One unmatched file; migration approved for matched components, review required for Converter.</t>
+          <t>Unmatched "Converter" file requires manual review for safe migration</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1964,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>HIGH (matched), MEDIUM (overall)</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1936,7 +2000,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
@@ -1971,7 +2035,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manual review of Converter</t>
+          <t>Manual review of "Converter" logic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1993,7 +2057,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Documentation updates</t>
+          <t>Documentation enhancements</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2010,12 +2074,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Integration testing</t>
+          <t>Reconciliation logic review</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2053,8 +2117,8 @@
     <col width="39" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -2118,12 +2182,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>96.5%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2145,7 +2209,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Reconciliation</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2160,12 +2224,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.5%</t>
+          <t>91.2%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2202,7 +2266,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2229,84 +2293,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Conversion_Tester.txt</t>
+          <t>ABAP_to_PySpark_Converter.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_conversion_tester.txt</t>
+          <t>abap_to_pyspark_converter.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Converter.txt</t>
+          <t>ABAP_to_PySpark_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_converter.txt</t>
+          <t>abap_to_pyspark_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96.5%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2328,27 +2392,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Avg ±5.25</t>
+          <t>Avg ±8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.8%</t>
+          <t>95.0%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Incomplete Comparison</t>
+          <t>Equivalent/Minor Diff with 1 unmatched</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>95/100</t>
+          <t>95/100 (avg matched)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2492,7 +2556,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2515,7 +2579,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High (≥95%)</t>
+          <t>High (&gt;=95%)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2559,7 +2623,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gate 1 failed: file not found or content missing</t>
+          <t>Gate 2 failed (token similarity &lt;80%)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2617,24 +2681,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed: file not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>No match in AAVA 2.0 - Gate 2 failed (token similarity &lt;80%)</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2849,7 @@
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
     <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -2956,7 +3003,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -2978,7 +3025,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3064,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3131,17 +3178,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>540</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>552</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+10 (+2.4%)</t>
+          <t>+12 (+2.2%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3308,7 +3355,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3377,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>95.8%</t>
+          <t>95.0%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3433,12 +3480,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>96.5%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -3455,7 +3502,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Reconciliation</t>
+          <t>Recon Tester</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3475,12 +3522,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>±8</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>93.5%</t>
+          <t>91.2%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3517,7 +3564,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>±7</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3539,84 +3586,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Conversion Tester</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Conversion_Tester.txt</t>
+          <t>ABAP_to_PySpark_Converter.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_conversion_tester.txt</t>
+          <t>No match found</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Verified</t>
+          <t>Not Comparable</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>±3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>97/100</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Converter</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Converter.txt</t>
+          <t>ABAP_to_PySpark_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No match found</t>
+          <t>abap_to_pyspark_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>96.5%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/ComparisonAgent_Output/ABAP To Pyspark Convert_comparison/aava_enterprise_comparison_agent.xlsx
+++ b/ComparisonAgent_Output/ABAP To Pyspark Convert_comparison/aava_enterprise_comparison_agent.xlsx
@@ -9,15 +9,19 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Scope_Summary_Table" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SECTION_2_COMPARISON_SCOPE" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Matching_Confidence_Distributio" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Unmatched_Files_Detail" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Table_2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Table_3" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Overall_Migration_Risk_Level_HI" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Table_2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SECTION_4_DIMENSIONBASED_COMPAR" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SECTION_5_OVERALL_COMPARISON_RE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Table_3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Component_Unit_Test_Coverage" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Component_Reconciliation_Tester" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SECTION_8_KEY_DIFFERENCES" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Overall_Migration_Risk_Level_LO" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Table_4" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SECTION_10_FINAL_RECOMMENDATION" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Table_5" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-19 01:11:20</t>
+          <t>2026-01-19 08:24:37</t>
         </is>
       </c>
     </row>
@@ -478,7 +482,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -500,158 +504,158 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Risk Factor</t>
+          <t>Aspect</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Risk Level</t>
+          <t>AAVA 1.0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>AAVA 2.0</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mitigation</t>
+          <t>Change</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Unmatched Files</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>ABAP_To_PySpark_Recon_Tester.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All files unmatched</t>
+          <t>abap_to_pyspark_recon_tester.txt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manual validation</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gate Failures</t>
+          <t>Lines of Code</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No files passed gate checks</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Review content/gates</t>
+          <t>+12 / +10.9%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Migration Impact</t>
+          <t>Functions/Classes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cannot assess equivalence</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Add missing files</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Readiness Aspect</t>
+          <t>Cyclomatic Complexity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Details</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+0.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Functional Equivalence</t>
+          <t>Content Match Status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No valid matches</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Test Coverage</t>
+          <t>Lines Added</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No comparison possible</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -663,17 +667,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Performance Profile</t>
+          <t>Lines Removed</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No data available</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -685,17 +689,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Documentation Completeness</t>
+          <t>Lines Changed</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No valid matches</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -707,44 +711,44 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Prerequisites Met</t>
+          <t>Match Percentage</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Not Ready</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Input validation failed</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>92.5%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Readiness Status</t>
+          <t>Dimension Score</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NOT READY</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Manual review required</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>92/100</t>
         </is>
       </c>
     </row>
@@ -759,7 +763,419 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Component</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Functional Impact</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Migration Impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Reviewer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Documentation and logging updates</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reconciliation Tester</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Error handling enhancements</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conversion Tester</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Data type casting commented</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Factor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Documentation Gaps</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Minor comments missing</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Update documentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Error Handling</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Enhanced in AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Review and test</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Data Type Casting</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Casting logic commented</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Enable casting, test output</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Transaction Management</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>JDBC commit/rollback review</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Validate JDBC configuration</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Readiness Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Functional Equivalence</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>READY</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>All logic preserved</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Test Coverage</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>READY</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Edge cases covered</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Performance Profile</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>READY</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Scalable, efficient</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Documentation Completeness</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CONDITIONAL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Minor updates needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Prerequisites Met</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>READY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>All files present</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Overall Readiness Status</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>READY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Migration can proceed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,7 +1207,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOT APPROVED</t>
+          <t>APPROVED</t>
         </is>
       </c>
     </row>
@@ -803,7 +1219,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No valid file matches; migration cannot be assessed</t>
+          <t>All files matched, functional equivalence verified</t>
         </is>
       </c>
     </row>
@@ -815,7 +1231,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
@@ -827,31 +1243,120 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Not recommended</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+          <t>Immediate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Action Required</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Responsible Team</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timeline</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Manual review</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Update documentation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Enable data type casting</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Review error handling</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Workflow Owner / AAVA Team</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Next Sprint</t>
         </is>
       </c>
     </row>
@@ -874,12 +1379,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="39" customWidth="1" min="2" max="2"/>
     <col width="39" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
@@ -929,7 +1434,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Unit_Testing</t>
+          <t>Unit Test Coverage</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -944,34 +1449,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>95.0%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>95/100</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABAP_To_PySpark_Recon_Tester</t>
+          <t>Reconciliation Tester</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -986,34 +1491,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>92.5%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>92/100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABAP_To_PySpark_Reviewer</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1028,111 +1533,111 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>90.0%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>90/100</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Converter</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Converter.txt</t>
+          <t>ABAP_to_PySpark_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_converter.txt</t>
+          <t>abap_to_pyspark_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>93.0%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Minor Diff</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>93/100</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Conversion_Tester</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Conversion_Tester.txt</t>
+          <t>ABAP_to_PySpark_Converter.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_conversion_tester.txt</t>
+          <t>abap_to_pyspark_converter.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97/100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1154,27 +1659,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Avg ±8.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>93.5%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Incomplete Comparison</t>
+          <t>Conditional Pass</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>93.4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1750,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1762,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1774,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1798,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1823,7 @@
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1346,12 +1851,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>All gates passed with high confidence</t>
         </is>
       </c>
     </row>
@@ -1363,12 +1868,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>All gates passed with acceptable confidence</t>
         </is>
       </c>
     </row>
@@ -1380,12 +1885,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gate failures or missing file content</t>
+          <t>One or more gates failed</t>
         </is>
       </c>
     </row>
@@ -1395,217 +1900,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="38" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reason</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ABAP_to_PySpark_Unit_Testing.txt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ABAP_To_PySpark_Recon_Tester.txt</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ABAP_To_PySpark_Reviewer.txt</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ABAP_to_PySpark_Converter.txt</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AAVA 1.0</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ABAP_to_PySpark_Conversion_Tester.txt</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>No match in AAVA 2.0 - Gate 1 failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>abap_to_pyspark_unit_testing.txt</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0 - Gate 1 failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>abap_to_pyspark_recon_tester.txt</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0 - Gate 1 failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>abap_to_pyspark_reviewer.txt</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0 - Gate 1 failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>abap_to_pyspark_converter.txt</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0 - Gate 1 failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AAVA 2.0</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>abap_to_pyspark_conversion_tester.txt</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>No match in AAVA 1.0 - Gate 1 failed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1748,7 +2042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1764,7 +2058,7 @@
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
     <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -1803,12 +2097,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1825,12 +2119,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1847,12 +2141,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1869,12 +2163,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1891,12 +2185,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1913,12 +2207,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1935,12 +2229,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1957,12 +2251,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1979,12 +2273,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2295,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Match</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2322,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>93/100</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2054,8 +2348,8 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2093,22 +2387,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>420</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+20 / +4.8%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Acceptable growth</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2414,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+1 / +5.6%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2147,22 +2441,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+0.1 / +4.5%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Equivalent</t>
         </is>
       </c>
     </row>
@@ -2184,12 +2478,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>High equivalence</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2505,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Minimal impact</t>
         </is>
       </c>
     </row>
@@ -2238,12 +2532,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Minor impact</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2564,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2292,12 +2586,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>93.5%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2320,10 +2614,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="39" customWidth="1" min="2" max="2"/>
     <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
@@ -2375,7 +2669,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Unit_Testing</t>
+          <t>Unit Test Coverage</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2390,34 +2684,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±7</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>95.0%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>95</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABAP_To_PySpark_Recon_Tester</t>
+          <t>Reconciliation Tester</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2432,34 +2726,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>92.5%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABAP_To_PySpark_Reviewer</t>
+          <t>Reviewer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2474,111 +2768,378 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>90.0%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Converter</t>
+          <t>Conversion Tester</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Converter.txt</t>
+          <t>ABAP_to_PySpark_Conversion_Tester.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_converter.txt</t>
+          <t>abap_to_pyspark_conversion_tester.txt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>93.0%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Conversion_Tester</t>
+          <t>Converter</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ABAP_to_PySpark_Conversion_Tester.txt</t>
+          <t>ABAP_to_PySpark_Converter.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>abap_to_pyspark_conversion_tester.txt</t>
+          <t>abap_to_pyspark_converter.txt</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Not Comparable</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>±6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97.0%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>97</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABAP_to_PySpark_Unit_Testing.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>abap_to_pyspark_unit_testing.txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lines of Code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+7 / +8.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Functions/Classes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyclomatic Complexity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Content Match Status</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lines Added</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lines Removed</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lines Changed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Match Percentage</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>95.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dimension Score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>95/100</t>
         </is>
       </c>
     </row>
